--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2787733.219257559</v>
+        <v>2791283.779044952</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256419</v>
+        <v>6239134.53325642</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>202.5501749157408</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>270.6226856612329</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>38.85099796338667</v>
+        <v>142.5677531302079</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>143.6133126584316</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>283.7800869700859</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>48.9769967570045</v>
       </c>
       <c r="H7" t="n">
-        <v>59.7268375758684</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>64.76935934992291</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>57.68157701938528</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="11">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12.98299688294061</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>112.2266173273529</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.81869974802302</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
@@ -1897,7 +1897,7 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T17" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U17" t="n">
         <v>251.0030623803221</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802302</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>102.690626644449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.7401400319056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>226.1224112633616</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>224.2846936327358</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.8855177006659</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.05723773234509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>226.1224112633616</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.7401400319056</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.27535771921893</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0203559212045</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
         <v>295.6178616169271</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>119.7401400319056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>226.1224112633616</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G38" t="n">
         <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
-        <v>295.617861616927</v>
+        <v>295.6178616169271</v>
       </c>
       <c r="I38" t="n">
         <v>45.37937317040306</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>107.3549188708498</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>130.4482050673223</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
         <v>286.2142514133935</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>22.05723773234509</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
         <v>97.68290229956054</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>194.2804539802775</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>295.6178616169271</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040306</v>
+        <v>45.37937317040295</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.75397547164647</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>28.68313558002738</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2437.52426527019</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>2106.461377926619</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859355</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="X2" t="n">
-        <v>1036.358670716696</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,13 +4445,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E4" t="n">
-        <v>409.0761618661916</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="F4" t="n">
-        <v>262.1862143682812</v>
+        <v>366.9506135266865</v>
       </c>
       <c r="G4" t="n">
-        <v>93.1864141066136</v>
+        <v>197.950813265019</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>609.992838790206</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>199.0069340005984</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.473849053679</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4713,10 +4713,10 @@
         <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2731207858881</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610022</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>438.9553738610022</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>438.9553738610022</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610022</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K11" t="n">
-        <v>765.1137348815562</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.223600516549</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M11" t="n">
-        <v>2575.628477464137</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N11" t="n">
-        <v>3537.957892892778</v>
+        <v>3251.01232707018</v>
       </c>
       <c r="O11" t="n">
-        <v>4024.47845415181</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.211496276439</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.0844756480656</v>
+        <v>561.6604390533937</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0844756480656</v>
+        <v>392.7242561254868</v>
       </c>
       <c r="D13" t="n">
-        <v>355.9678362357298</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="E13" t="n">
-        <v>355.9678362357298</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F13" t="n">
-        <v>209.0778887378194</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S13" t="n">
-        <v>1720.61395783393</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.656398353473</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.5510938955</v>
+        <v>1339.668814705368</v>
       </c>
       <c r="V13" t="n">
-        <v>954.866605689613</v>
+        <v>1084.984326499481</v>
       </c>
       <c r="W13" t="n">
-        <v>954.866605689613</v>
+        <v>795.5671564625204</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8770547915957</v>
+        <v>795.5671564625204</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0844756480656</v>
+        <v>574.7745773189903</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302083</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682885</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224911</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190245</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W16" t="n">
-        <v>573.609596982064</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X16" t="n">
-        <v>345.6200460840466</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.8274669405165</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
@@ -5527,7 +5527,7 @@
         <v>2408.222828443784</v>
       </c>
       <c r="N17" t="n">
-        <v>3251.01232707018</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O17" t="n">
         <v>4114.52506777933</v>
@@ -5548,19 +5548,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V17" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y17" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P18" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1122.605169488108</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>953.668986560201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>803.5523471478652</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>655.6392535654721</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5703,22 +5703,22 @@
         <v>1628.774119163341</v>
       </c>
       <c r="T19" t="n">
-        <v>1628.774119163341</v>
+        <v>1406.816559682885</v>
       </c>
       <c r="U19" t="n">
-        <v>1628.774119163341</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V19" t="n">
-        <v>1628.774119163341</v>
+        <v>863.0267670190245</v>
       </c>
       <c r="W19" t="n">
-        <v>1628.774119163341</v>
+        <v>573.609596982064</v>
       </c>
       <c r="X19" t="n">
-        <v>1525.046213461878</v>
+        <v>345.6200460840466</v>
       </c>
       <c r="Y19" t="n">
-        <v>1304.253634318348</v>
+        <v>124.8274669405165</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.642956557056</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M20" t="n">
-        <v>2038.02943534674</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N20" t="n">
-        <v>2657.180509552854</v>
+        <v>2813.464348992109</v>
       </c>
       <c r="O20" t="n">
-        <v>3520.693250262004</v>
+        <v>3676.977089701259</v>
       </c>
       <c r="P20" t="n">
-        <v>4220.007013476401</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5974,13 +5974,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H23" t="n">
         <v>141.5554198924156</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6120443066563</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1767.721909941649</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M23" t="n">
-        <v>2284.108388731333</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N23" t="n">
-        <v>3246.437804159973</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O23" t="n">
-        <v>4109.950544869123</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6068,25 +6068,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629237</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418659</v>
+        <v>488.1430095111803</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740672</v>
+        <v>843.4975491433815</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075617</v>
       </c>
       <c r="N24" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
-        <v>2062.14661647041</v>
+        <v>2136.002693439724</v>
       </c>
       <c r="P24" t="n">
-        <v>2362.669871067691</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q24" t="n">
         <v>2587.498588679581</v>
@@ -6180,19 +6180,19 @@
         <v>1498.656398353473</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V25" t="n">
-        <v>954.866605689613</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W25" t="n">
-        <v>665.4494356526525</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X25" t="n">
-        <v>437.4598847546351</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.667305611105</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K26" t="n">
-        <v>765.1137348815562</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.223600516549</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2575.628477464137</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N26" t="n">
-        <v>3104.984437724914</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O26" t="n">
-        <v>3591.504998983946</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P26" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6408,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="S28" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="T28" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="U28" t="n">
-        <v>1623.973345514698</v>
+        <v>1821.238811302083</v>
       </c>
       <c r="V28" t="n">
-        <v>1369.288857308811</v>
+        <v>1566.554323096196</v>
       </c>
       <c r="W28" t="n">
-        <v>1079.871687271851</v>
+        <v>1340.004127507574</v>
       </c>
       <c r="X28" t="n">
-        <v>851.8821363738332</v>
+        <v>1112.014576609557</v>
       </c>
       <c r="Y28" t="n">
-        <v>709.5735326357868</v>
+        <v>891.2219974660266</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.33139720366</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
         <v>440.1593205155743</v>
@@ -6469,13 +6469,13 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.642956557056</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M29" t="n">
-        <v>2038.02943534674</v>
+        <v>2451.514037751686</v>
       </c>
       <c r="N29" t="n">
-        <v>2657.180509552854</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O29" t="n">
         <v>3520.693250262004</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H31" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
         <v>95.71766921524075</v>
@@ -6654,19 +6654,19 @@
         <v>1498.656398353473</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>954.866605689613</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4494356526525</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>437.4598847546351</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.667305611105</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
@@ -6706,13 +6706,13 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.642956557056</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M32" t="n">
-        <v>2038.02943534674</v>
+        <v>2451.514037751686</v>
       </c>
       <c r="N32" t="n">
-        <v>2657.180509552854</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O32" t="n">
         <v>3520.693250262004</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>393.7474022099696</v>
+        <v>216.667305611105</v>
       </c>
       <c r="C34" t="n">
-        <v>393.7474022099696</v>
+        <v>216.667305611105</v>
       </c>
       <c r="D34" t="n">
-        <v>243.6307627976338</v>
+        <v>216.667305611105</v>
       </c>
       <c r="E34" t="n">
         <v>95.71766921524075</v>
@@ -6903,7 +6903,7 @@
         <v>437.4598847546351</v>
       </c>
       <c r="Y34" t="n">
-        <v>393.7474022099696</v>
+        <v>216.667305611105</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G35" t="n">
         <v>440.1593205155743</v>
@@ -6943,13 +6943,13 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.642956557056</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M35" t="n">
-        <v>2038.02943534674</v>
+        <v>2451.514037751686</v>
       </c>
       <c r="N35" t="n">
-        <v>2657.180509552854</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O35" t="n">
         <v>3520.693250262004</v>
@@ -7128,19 +7128,19 @@
         <v>1498.656398353473</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.5510938955</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V37" t="n">
-        <v>954.866605689613</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W37" t="n">
-        <v>665.4494356526525</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X37" t="n">
-        <v>437.4598847546351</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.667305611105</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K38" t="n">
-        <v>765.1137348815562</v>
+        <v>597.7080858612032</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.223600516549</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M38" t="n">
-        <v>2575.628477464137</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N38" t="n">
-        <v>3537.957892892778</v>
+        <v>3370.552243872425</v>
       </c>
       <c r="O38" t="n">
-        <v>4024.47845415181</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.211496276439</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q38" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>449.4410924000633</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7359,25 +7359,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T40" t="n">
-        <v>1913.078649972671</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U40" t="n">
-        <v>1623.973345514698</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V40" t="n">
-        <v>1369.288857308811</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W40" t="n">
-        <v>1079.871687271851</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X40" t="n">
-        <v>851.8821363738332</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y40" t="n">
-        <v>631.0895572303031</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139486</v>
+        <v>276.3093906935955</v>
       </c>
       <c r="K41" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066563</v>
       </c>
       <c r="L41" t="n">
-        <v>1935.127558962002</v>
+        <v>1611.438070502394</v>
       </c>
       <c r="M41" t="n">
-        <v>2896.53243590959</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N41" t="n">
-        <v>3425.888396170367</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O41" t="n">
-        <v>4049.465812105077</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
         <v>4667.940766252041</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.667305611105</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="C43" t="n">
-        <v>216.667305611105</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="D43" t="n">
-        <v>216.667305611105</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="E43" t="n">
-        <v>216.667305611105</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="F43" t="n">
-        <v>216.667305611105</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G43" t="n">
-        <v>216.667305611105</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H43" t="n">
         <v>194.3872674976251</v>
@@ -7596,25 +7596,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S43" t="n">
-        <v>1720.61395783393</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.656398353473</v>
+        <v>1716.83576716431</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.5510938955</v>
+        <v>1427.730462706337</v>
       </c>
       <c r="V43" t="n">
-        <v>954.866605689613</v>
+        <v>1173.04597450045</v>
       </c>
       <c r="W43" t="n">
-        <v>665.4494356526525</v>
+        <v>883.6288044634895</v>
       </c>
       <c r="X43" t="n">
-        <v>437.4598847546351</v>
+        <v>655.6392535654721</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.667305611105</v>
+        <v>655.6392535654721</v>
       </c>
     </row>
     <row r="44">
@@ -7630,46 +7630,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E44" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I44" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935955</v>
+        <v>443.7150397139486</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7080858612032</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M44" t="n">
-        <v>2408.222828443784</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N44" t="n">
-        <v>3370.552243872425</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.5735326357868</v>
+        <v>509.9379633372129</v>
       </c>
       <c r="C46" t="n">
-        <v>540.6373497078799</v>
+        <v>341.001780409306</v>
       </c>
       <c r="D46" t="n">
-        <v>390.5207102955442</v>
+        <v>341.001780409306</v>
       </c>
       <c r="E46" t="n">
-        <v>242.6076167131511</v>
+        <v>341.001780409306</v>
       </c>
       <c r="F46" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="G46" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H46" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1870.902917173029</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1678.438225034287</v>
       </c>
       <c r="T46" t="n">
-        <v>1913.078649972671</v>
+        <v>1456.48066555383</v>
       </c>
       <c r="U46" t="n">
-        <v>1884.105785750422</v>
+        <v>1456.48066555383</v>
       </c>
       <c r="V46" t="n">
-        <v>1629.421297544535</v>
+        <v>1201.796177347943</v>
       </c>
       <c r="W46" t="n">
-        <v>1340.004127507574</v>
+        <v>912.3790073109827</v>
       </c>
       <c r="X46" t="n">
-        <v>1112.014576609557</v>
+        <v>912.3790073109827</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.2219974660266</v>
+        <v>691.5864281674526</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>316.5995337026461</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>25.23975550835129</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>316.5995337026461</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>3.419393410990438</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>229.652663964409</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>4.620730212329647</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880242</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.60209794880225</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>3.419393410990438</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P26" t="n">
-        <v>250.2716892604303</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061594</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10354,16 +10354,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061594</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>90.70213529832063</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061594</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>260.0527905534074</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>25.23975550835129</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>259.7987504703947</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>138.4412673491703</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832063</v>
       </c>
       <c r="O44" t="n">
-        <v>260.0527905534074</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>166.8489832989967</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>53.84343307432026</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
         <v>145.148367782564</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0132804339143</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388265</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>151.0132804339143</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>123.0190287445881</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.09184015003166</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>60.09184015003183</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388265</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>190.5400452173542</v>
@@ -24657,19 +24657,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>62.23830470385519</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.69913565142889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>157.7747424495922</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>60.09184015003183</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>26.69382261466353</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.3092956328759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.09184015003166</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>60.09184015003183</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>59.89190222777806</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956054</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003191</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>123.0911300502189</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>90.92144028388265</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>25.4575299053746</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H46" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956054</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388265</v>
+        <v>49.16746481223618</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>257.5311158333661</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776268.9732363278</v>
+        <v>776268.9732363276</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776268.9732363279</v>
+        <v>776268.9732363278</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776268.9732363278</v>
+        <v>776268.9732363276</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776268.9732363278</v>
+        <v>776268.9732363276</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776268.9732363279</v>
+        <v>776268.9732363276</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776268.9732363276</v>
+        <v>776268.9732363278</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
-        <v>634414.8833019091</v>
+        <v>634414.8833019093</v>
       </c>
       <c r="F2" t="n">
-        <v>634414.8833019083</v>
+        <v>634414.8833019084</v>
       </c>
       <c r="G2" t="n">
-        <v>634414.8833019083</v>
+        <v>634414.8833019084</v>
       </c>
       <c r="H2" t="n">
-        <v>634414.8833019085</v>
+        <v>634414.8833019084</v>
       </c>
       <c r="I2" t="n">
         <v>634414.8833019085</v>
       </c>
       <c r="J2" t="n">
-        <v>634414.8833019087</v>
+        <v>634414.8833019083</v>
       </c>
       <c r="K2" t="n">
         <v>634414.8833019085</v>
       </c>
       <c r="L2" t="n">
-        <v>634414.8833019085</v>
+        <v>634414.8833019084</v>
       </c>
       <c r="M2" t="n">
-        <v>634414.8833019085</v>
+        <v>634414.8833019083</v>
       </c>
       <c r="N2" t="n">
-        <v>634414.8833019083</v>
+        <v>634414.8833019082</v>
       </c>
       <c r="O2" t="n">
-        <v>634414.8833019085</v>
+        <v>634414.8833019086</v>
       </c>
       <c r="P2" t="n">
         <v>634414.8833019083</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>23693.1256358116</v>
@@ -26432,7 +26432,7 @@
         <v>23693.1256358116</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="H4" t="n">
         <v>23693.12563581159</v>
@@ -26441,25 +26441,25 @@
         <v>23693.12563581159</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581159</v>
+        <v>23693.1256358116</v>
       </c>
       <c r="N4" t="n">
         <v>23693.1256358116</v>
       </c>
       <c r="O4" t="n">
+        <v>23693.1256358116</v>
+      </c>
+      <c r="P4" t="n">
         <v>23693.12563581159</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23693.1256358116</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.137778957</v>
+        <v>-208200.1377789569</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355874</v>
+        <v>381767.7414355876</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355874</v>
+        <v>381767.7414355873</v>
       </c>
       <c r="E6" t="n">
-        <v>-194197.6316212226</v>
+        <v>-193567.1103921422</v>
       </c>
       <c r="F6" t="n">
-        <v>514053.465130605</v>
+        <v>514683.9863596853</v>
       </c>
       <c r="G6" t="n">
-        <v>514053.465130605</v>
+        <v>514683.9863596853</v>
       </c>
       <c r="H6" t="n">
-        <v>514053.4651306053</v>
+        <v>514683.9863596853</v>
       </c>
       <c r="I6" t="n">
-        <v>514053.4651306053</v>
+        <v>514683.9863596854</v>
       </c>
       <c r="J6" t="n">
-        <v>337630.2459380127</v>
+        <v>338260.7671670922</v>
       </c>
       <c r="K6" t="n">
-        <v>514053.4651306053</v>
+        <v>514683.9863596854</v>
       </c>
       <c r="L6" t="n">
-        <v>514053.4651306053</v>
+        <v>514683.9863596853</v>
       </c>
       <c r="M6" t="n">
-        <v>383923.2251611958</v>
+        <v>384553.7463902758</v>
       </c>
       <c r="N6" t="n">
-        <v>514053.465130605</v>
+        <v>514683.9863596851</v>
       </c>
       <c r="O6" t="n">
-        <v>514053.4651306053</v>
+        <v>514683.9863596855</v>
       </c>
       <c r="P6" t="n">
-        <v>514053.465130605</v>
+        <v>514683.9863596852</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>48.67399259254853</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>99.1084150172361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>117.3198908784085</v>
+        <v>13.60313571158721</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>270.1708573623634</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>65.46088174732711</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,19 +27785,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>118.3328055020464</v>
       </c>
       <c r="H7" t="n">
-        <v>96.44405126592675</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>109.6463534590486</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>87.73947100354596</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K11" t="n">
         <v>324.6451466339471</v>
@@ -35421,19 +35421,19 @@
         <v>971.116037320796</v>
       </c>
       <c r="N11" t="n">
-        <v>972.0499145743844</v>
+        <v>851.3025238650464</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626587</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P11" t="n">
         <v>384.5788304289184</v>
       </c>
       <c r="Q11" t="n">
-        <v>265.3831009854563</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35895,10 +35895,10 @@
         <v>971.116037320796</v>
       </c>
       <c r="N17" t="n">
-        <v>851.3025238650464</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O17" t="n">
-        <v>872.235091625404</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P17" t="n">
         <v>384.5788304289184</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709662</v>
@@ -35983,7 +35983,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K20" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L20" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M20" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N20" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O20" t="n">
         <v>872.235091625404</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004011</v>
+        <v>614.2314943933274</v>
       </c>
       <c r="Q20" t="n">
         <v>452.4583361370097</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K23" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M23" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N23" t="n">
-        <v>972.0499145743844</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O23" t="n">
         <v>872.235091625404</v>
       </c>
       <c r="P23" t="n">
-        <v>389.199560641248</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239248</v>
+        <v>164.2398203511949</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709662</v>
@@ -36457,7 +36457,7 @@
         <v>303.5588430275572</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.0997147594846</v>
+        <v>152.4976168106823</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K26" t="n">
         <v>324.6451466339471</v>
@@ -36606,19 +36606,19 @@
         <v>971.116037320796</v>
       </c>
       <c r="N26" t="n">
-        <v>534.7029901624003</v>
+        <v>972.0499145743844</v>
       </c>
       <c r="O26" t="n">
-        <v>491.4349103626587</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P26" t="n">
-        <v>634.8505196893486</v>
+        <v>384.5788304289184</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370097</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L29" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M29" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N29" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O29" t="n">
-        <v>872.235091625404</v>
+        <v>545.2760123732746</v>
       </c>
       <c r="P29" t="n">
         <v>706.3775386004011</v>
@@ -37074,16 +37074,16 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L32" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M32" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N32" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O32" t="n">
-        <v>872.235091625404</v>
+        <v>545.2760123732746</v>
       </c>
       <c r="P32" t="n">
         <v>706.3775386004011</v>
@@ -37311,16 +37311,16 @@
         <v>648.7905592051119</v>
       </c>
       <c r="L35" t="n">
-        <v>440.0255184141889</v>
+        <v>857.6867329646393</v>
       </c>
       <c r="M35" t="n">
         <v>521.6025038279635</v>
       </c>
       <c r="N35" t="n">
-        <v>625.4051254607209</v>
+        <v>534.7029901624003</v>
       </c>
       <c r="O35" t="n">
-        <v>872.235091625404</v>
+        <v>545.2760123732746</v>
       </c>
       <c r="P35" t="n">
         <v>706.3775386004011</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K38" t="n">
         <v>324.6451466339471</v>
@@ -37557,16 +37557,16 @@
         <v>972.0499145743844</v>
       </c>
       <c r="O38" t="n">
-        <v>491.4349103626587</v>
+        <v>751.487700916066</v>
       </c>
       <c r="P38" t="n">
         <v>384.5788304289184</v>
       </c>
       <c r="Q38" t="n">
-        <v>265.3831009854563</v>
+        <v>240.143345477105</v>
       </c>
       <c r="R38" t="n">
-        <v>119.1340348585826</v>
+        <v>53.41761498560015</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.5124954532402</v>
+        <v>182.4158802811664</v>
       </c>
       <c r="K41" t="n">
         <v>648.7905592051119</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646393</v>
+        <v>699.8242688845836</v>
       </c>
       <c r="M41" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N41" t="n">
         <v>534.7029901624003</v>
       </c>
       <c r="O41" t="n">
-        <v>629.876177711829</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R41" t="n">
         <v>119.1340348585826</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811664</v>
+        <v>351.5124954532402</v>
       </c>
       <c r="K44" t="n">
-        <v>324.6451466339471</v>
+        <v>648.7905592051119</v>
       </c>
       <c r="L44" t="n">
-        <v>857.6867329646393</v>
+        <v>440.0255184141889</v>
       </c>
       <c r="M44" t="n">
-        <v>971.116037320796</v>
+        <v>521.6025038279635</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743844</v>
+        <v>625.4051254607209</v>
       </c>
       <c r="O44" t="n">
-        <v>751.487700916066</v>
+        <v>872.235091625404</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289184</v>
+        <v>706.3775386004011</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.143345477105</v>
+        <v>452.4583361370097</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560015</v>
+        <v>119.1340348585826</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
